--- a/evaluation/evaluationResults.xlsx
+++ b/evaluation/evaluationResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/evaluation/evaluationResults.xlsx
+++ b/evaluation/evaluationResults.xlsx
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/evaluation/evaluationResults.xlsx
+++ b/evaluation/evaluationResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Course</t>
   </si>
@@ -33,9 +33,6 @@
     <t>1a</t>
   </si>
   <si>
-    <t>1b</t>
-  </si>
-  <si>
     <t>2a</t>
   </si>
   <si>
@@ -45,15 +42,9 @@
     <t>3a</t>
   </si>
   <si>
-    <t>3b</t>
-  </si>
-  <si>
     <t>4a</t>
   </si>
   <si>
-    <t>4b</t>
-  </si>
-  <si>
     <t>5a</t>
   </si>
   <si>
@@ -63,25 +54,13 @@
     <t>6a</t>
   </si>
   <si>
-    <t>6b</t>
-  </si>
-  <si>
     <t>7a</t>
   </si>
   <si>
-    <t>7b</t>
-  </si>
-  <si>
     <t>8a</t>
   </si>
   <si>
-    <t>8b</t>
-  </si>
-  <si>
     <t>9a</t>
-  </si>
-  <si>
-    <t>9b</t>
   </si>
   <si>
     <t>10a</t>
@@ -638,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -656,16 +635,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -673,335 +652,288 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
+      <c r="E18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/evaluationResults.xlsx
+++ b/evaluation/evaluationResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="42">
   <si>
     <t>Course</t>
   </si>
@@ -136,13 +136,22 @@
   </si>
   <si>
     <t>Support</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>PT Strålsäkerhet</t>
+  </si>
+  <si>
+    <t>Telia GDPR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +184,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +210,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -235,8 +252,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,8 +279,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="57">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -268,6 +305,14 @@
     <cellStyle name="Följd hyperlänk" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -288,6 +333,14 @@
     <cellStyle name="Hyperlänk" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -936,6 +989,873 @@
         <v>4</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/evaluation/evaluationResults.xlsx
+++ b/evaluation/evaluationResults.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="59">
   <si>
     <t>Course</t>
   </si>
@@ -145,13 +146,102 @@
   </si>
   <si>
     <t>Telia GDPR</t>
+  </si>
+  <si>
+    <t>FRÅGOR</t>
+  </si>
+  <si>
+    <t>Avslut</t>
+  </si>
+  <si>
+    <t>Är det något som har blivit utlämnat från Grade pedagogiska kursdesign?</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att bedöma användargruppen och därefter designa kursen enligt denna bedömning?</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att kursdesignen och ämnet utförligt granskas från det bakomliggande material?</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att studenten aktivt kan utföra övningar i kursen, för att senare skapa något och påverka deras miljö?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hur viktigt är det att studenten ska samarbeta med andra för att visa förståelse? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hur viktigt är det att studenten blir korrigerad när misstag utförs i kursen?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hur viktigt är det att studenten får reflektera efter kursen är genomförd?</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Hur viktigt är det att kursen har formativa bedömningar av studenten för att skapa en lärmiljö som ger studenten möjligheter att lära sig? T.ex. kapiteltester och avslutnings test.</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att lärandet genomförs med hjälp av övning och granskning?</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att skapa ett meningsfullt sammanhang för studenten genom att ge de chanser att lösa olika problem?</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att det genomförs en analys av studentens explicita och implicita normer?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hur viktigt är det att uttala och förklara vad studenten ska lära sig i kursen?</t>
+    </r>
+  </si>
+  <si>
+    <t>Hur viktigt är det studenten ska bli motiverad till att aktivera sina sinnen (kognitiva färdigheter) för att gestalta det i sin omgivning?</t>
+  </si>
+  <si>
+    <t>Hur viktigt är det att studenten får veta varför kursen är betydande och visa att de förstår?</t>
+  </si>
+  <si>
+    <t>Poäng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +282,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF008080"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +389,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,6 +403,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
@@ -672,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
@@ -1865,4 +2012,212 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="103.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>